--- a/EXCELS PROGRAMA/ReporteProductos.xlsx
+++ b/EXCELS PROGRAMA/ReporteProductos.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\POS\POS-Sales\EXCELS PROGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00201C84-4FA7-47F8-98A6-E10402869DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B03F571-1907-4DE6-9E97-3529EB5C158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4455" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="6" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,49 +28,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>PRODUCTO</t>
-  </si>
-  <si>
-    <t>CANTVENDIDA</t>
-  </si>
-  <si>
-    <t>CANTCOMPRADA</t>
-  </si>
-  <si>
-    <t>COSTOTOTAL</t>
-  </si>
-  <si>
-    <t>GANANCIATOTAL</t>
-  </si>
-  <si>
-    <t>GANANCIANETA</t>
   </si>
   <si>
     <t>Prueba</t>
   </si>
   <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
     <t>Total general</t>
   </si>
   <si>
-    <t>Suma de COSTOTOTAL</t>
+    <t>EMPRESA</t>
   </si>
   <si>
-    <t>Suma de GANANCIATOTAL</t>
+    <t>NOMBRE EJEMPLO</t>
   </si>
   <si>
-    <t>Suma de GANANCIANETA</t>
+    <t>SUCURSAL SELECCIONADA</t>
+  </si>
+  <si>
+    <t>tEXTO</t>
+  </si>
+  <si>
+    <t>DESDE</t>
+  </si>
+  <si>
+    <t>HASTA</t>
+  </si>
+  <si>
+    <t>DATOS DE VENTAS</t>
+  </si>
+  <si>
+    <t>Unidades Vendidas</t>
+  </si>
+  <si>
+    <t>Monto de Venta</t>
+  </si>
+  <si>
+    <t>Unidades Compradas</t>
+  </si>
+  <si>
+    <t>Costo Total</t>
+  </si>
+  <si>
+    <t>Margen de Ganancia</t>
+  </si>
+  <si>
+    <t>GANANCIA NETA</t>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANANCIA </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +102,82 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,22 +185,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -147,21 +415,158 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-NI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -181,121 +586,8 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-NI"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-NI"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -329,28 +621,57 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Datos!$J$2</c:f>
+              <c:f>Datos!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de COSTOTOTAL</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Datos!$I$3:$I$4</c:f>
+              <c:f>Datos!$H$5:$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -361,7 +682,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Datos!$J$3:$J$4</c:f>
+              <c:f>Datos!$I$5:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -373,113 +694,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF5A-47B1-9CE5-EBAB632F80EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Datos!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Suma de GANANCIATOTAL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Datos!$I$3:$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Prueba</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Datos!$K$3:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CF5A-47B1-9CE5-EBAB632F80EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Datos!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Suma de GANANCIANETA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Datos!$I$3:$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Prueba</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Datos!$L$3:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CF5A-47B1-9CE5-EBAB632F80EB}"/>
+              <c16:uniqueId val="{00000002-44BC-4569-9F5D-F84B1C7BD7A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -491,12 +706,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="389333408"/>
-        <c:axId val="389333048"/>
+        <c:gapWidth val="100"/>
+        <c:axId val="606774976"/>
+        <c:axId val="606775336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="389333408"/>
+        <c:axId val="606774976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,11 +723,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -526,9 +741,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -539,7 +753,7 @@
             <a:endParaRPr lang="es-NI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389333048"/>
+        <c:crossAx val="606775336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -547,7 +761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389333048"/>
+        <c:axId val="606775336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,9 +771,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -585,9 +799,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -598,7 +811,7 @@
             <a:endParaRPr lang="es-NI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389333408"/>
+        <c:crossAx val="606774976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -627,9 +840,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -653,17 +865,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -742,35 +965,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -778,26 +999,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -806,9 +1035,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -827,14 +1055,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -843,35 +1063,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -883,30 +1103,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -922,21 +1143,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -946,20 +1164,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -970,17 +1188,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -989,14 +1207,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1008,28 +1225,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1041,111 +1252,118 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1157,12 +1375,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1171,14 +1396,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1187,9 +1411,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1199,7 +1422,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1207,9 +1430,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1220,9 +1443,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1232,14 +1454,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1248,23 +1464,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57953544-5449-2111-57EC-6020F9F0653B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35287DFF-396B-A230-30A8-F7018A9673B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,30 +1502,33 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Usuario" refreshedDate="45721.563610648147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{3FF764A7-86BB-4996-A057-9BF7B905B69C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Usuario" refreshedDate="45740.455603240742" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{BCF02AC8-2920-4301-B14B-835D566BCD5C}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla1"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="7">
     <cacheField name="PRODUCTO" numFmtId="0">
       <sharedItems count="1">
         <s v="Prueba"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="CANTVENDIDA" numFmtId="0">
+    <cacheField name="Unidades Vendidas" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
-    <cacheField name="CANTCOMPRADA" numFmtId="0">
+    <cacheField name="Monto de Venta" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
-    <cacheField name="COSTOTOTAL" numFmtId="0">
+    <cacheField name="Unidades Compradas" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
     </cacheField>
-    <cacheField name="GANANCIATOTAL" numFmtId="0">
+    <cacheField name="Costo Total" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="40"/>
     </cacheField>
-    <cacheField name="GANANCIANETA" numFmtId="0">
+    <cacheField name="GANANCIA NETA" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Margen de Ganancia" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5" maxValue="0.5"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1329,14 +1548,15 @@
     <n v="20"/>
     <n v="40"/>
     <n v="20"/>
+    <n v="0.5"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EF351B4-781D-4078-93A3-71D5FDEE65F7}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="I2:L4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{773CB871-E4F2-417D-86F4-DFDF5462E221}" name="TablaDinámica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="PRODUCTOS">
+  <location ref="H4:I6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="2">
         <item x="0"/>
@@ -1345,9 +1565,10 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -1360,49 +1581,26 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="3">
-    <dataField name="Suma de COSTOTOTAL" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Suma de GANANCIATOTAL" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Suma de GANANCIANETA" fld="5" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="GANANCIA " fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
+  <formats count="2">
+    <format dxfId="26">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -1421,15 +1619,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2A60C25-2AC3-4541-AF6B-161A7019759B}" name="Tabla1" displayName="Tabla1" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{B2A60C25-2AC3-4541-AF6B-161A7019759B}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2A60C25-2AC3-4541-AF6B-161A7019759B}" name="Tabla1" displayName="Tabla1" ref="A4:G5" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="A4:G5" xr:uid="{B2A60C25-2AC3-4541-AF6B-161A7019759B}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{94A232EF-DCC6-4FD9-A006-B9D9689E3F2C}" name="PRODUCTO"/>
-    <tableColumn id="3" xr3:uid="{08426E77-9F77-405B-8842-8EFC08D68E30}" name="CANTVENDIDA"/>
-    <tableColumn id="4" xr3:uid="{08844D9C-533D-42E2-B218-8E261F3780D0}" name="CANTCOMPRADA"/>
-    <tableColumn id="5" xr3:uid="{D7E8C05A-A8D5-49AE-AE92-A057CAA71B44}" name="COSTOTOTAL"/>
-    <tableColumn id="6" xr3:uid="{FBC25CEA-506E-4C2F-A184-17F4AA823E94}" name="GANANCIATOTAL"/>
-    <tableColumn id="7" xr3:uid="{4B9CEEDC-3AA2-436A-9447-5AEF7D972AF9}" name="GANANCIANETA"/>
+    <tableColumn id="3" xr3:uid="{08426E77-9F77-405B-8842-8EFC08D68E30}" name="Unidades Vendidas"/>
+    <tableColumn id="4" xr3:uid="{08844D9C-533D-42E2-B218-8E261F3780D0}" name="Monto de Venta"/>
+    <tableColumn id="5" xr3:uid="{D7E8C05A-A8D5-49AE-AE92-A057CAA71B44}" name="Unidades Compradas"/>
+    <tableColumn id="6" xr3:uid="{FBC25CEA-506E-4C2F-A184-17F4AA823E94}" name="Costo Total"/>
+    <tableColumn id="7" xr3:uid="{4B9CEEDC-3AA2-436A-9447-5AEF7D972AF9}" name="GANANCIA NETA"/>
+    <tableColumn id="2" xr3:uid="{6943C007-3904-4C28-B9C5-BBC8476834D0}" name="Margen de Ganancia" dataDxfId="27">
+      <calculatedColumnFormula>(Tabla1[[#This Row],[GANANCIA NETA]]/Tabla1[[#This Row],[Costo Total]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1698,107 +1899,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6">
+        <v>37914</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6">
+        <v>37914</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10">
+        <f>(Tabla1[[#This Row],[GANANCIA NETA]]/Tabla1[[#This Row],[Costo Total]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="I6" s="11">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
